--- a/2022/Symphony/SEPTEMBER/25.09.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/SEPTEMBER/25.09.2022/MC Bank Statement Sep-2022.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="249">
   <si>
     <t>Date</t>
   </si>
@@ -704,16 +704,10 @@
     <t>Khondokar Telecom</t>
   </si>
   <si>
-    <t>Nan=Hasan Telecom</t>
-  </si>
-  <si>
     <t>08.09.2022</t>
   </si>
   <si>
     <t>Galaxy</t>
-  </si>
-  <si>
-    <t>Naj=CD Sound</t>
   </si>
   <si>
     <t>Nal=Rubel Enterprise</t>
@@ -738,9 +732,6 @@
   </si>
   <si>
     <t>J=Molla Mobile</t>
-  </si>
-  <si>
-    <t>M=T.M Electronics</t>
   </si>
   <si>
     <t>N=Bismillah Telecom</t>
@@ -828,6 +819,9 @@
   </si>
   <si>
     <t>realme(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na=CD Sound </t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2201,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3182,21 +3176,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4065,33 +4044,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="348"/>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
+      <c r="A1" s="343"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="346" t="s">
+      <c r="A2" s="344"/>
+      <c r="B2" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="349"/>
-      <c r="B3" s="347" t="s">
+      <c r="A3" s="344"/>
+      <c r="B3" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="349"/>
+      <c r="A4" s="344"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4109,7 +4088,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="349"/>
+      <c r="A5" s="344"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4127,7 +4106,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="349"/>
+      <c r="A6" s="344"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4139,7 +4118,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="349"/>
+      <c r="A7" s="344"/>
       <c r="B7" s="26" t="s">
         <v>45</v>
       </c>
@@ -4158,7 +4137,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="349"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="26" t="s">
         <v>46</v>
       </c>
@@ -4177,7 +4156,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="349"/>
+      <c r="A9" s="344"/>
       <c r="B9" s="26" t="s">
         <v>48</v>
       </c>
@@ -4196,7 +4175,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="349"/>
+      <c r="A10" s="344"/>
       <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
@@ -4215,7 +4194,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="349"/>
+      <c r="A11" s="344"/>
       <c r="B11" s="26" t="s">
         <v>50</v>
       </c>
@@ -4234,7 +4213,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="349"/>
+      <c r="A12" s="344"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
@@ -4253,7 +4232,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="349"/>
+      <c r="A13" s="344"/>
       <c r="B13" s="26" t="s">
         <v>52</v>
       </c>
@@ -4272,7 +4251,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="349"/>
+      <c r="A14" s="344"/>
       <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
@@ -4291,7 +4270,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="349"/>
+      <c r="A15" s="344"/>
       <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
@@ -4310,7 +4289,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="349"/>
+      <c r="A16" s="344"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4323,7 +4302,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="349"/>
+      <c r="A17" s="344"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4336,7 +4315,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="349"/>
+      <c r="A18" s="344"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4349,7 +4328,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="349"/>
+      <c r="A19" s="344"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4362,7 +4341,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="349"/>
+      <c r="A20" s="344"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4375,7 +4354,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="349"/>
+      <c r="A21" s="344"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4388,7 +4367,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="349"/>
+      <c r="A22" s="344"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4401,7 +4380,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="349"/>
+      <c r="A23" s="344"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4414,7 +4393,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="349"/>
+      <c r="A24" s="344"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4427,7 +4406,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="349"/>
+      <c r="A25" s="344"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4440,7 +4419,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="349"/>
+      <c r="A26" s="344"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4453,7 +4432,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="349"/>
+      <c r="A27" s="344"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4466,7 +4445,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="349"/>
+      <c r="A28" s="344"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4479,7 +4458,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="349"/>
+      <c r="A29" s="344"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4492,7 +4471,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="349"/>
+      <c r="A30" s="344"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4505,7 +4484,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="349"/>
+      <c r="A31" s="344"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4518,7 +4497,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="349"/>
+      <c r="A32" s="344"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4531,7 +4510,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="349"/>
+      <c r="A33" s="344"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4544,7 +4523,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="349"/>
+      <c r="A34" s="344"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4557,7 +4536,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="349"/>
+      <c r="A35" s="344"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4570,7 +4549,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="349"/>
+      <c r="A36" s="344"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4583,7 +4562,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="349"/>
+      <c r="A37" s="344"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4596,7 +4575,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="349"/>
+      <c r="A38" s="344"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4609,7 +4588,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="349"/>
+      <c r="A39" s="344"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4622,7 +4601,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="349"/>
+      <c r="A40" s="344"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4635,7 +4614,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="349"/>
+      <c r="A41" s="344"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4648,7 +4627,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="349"/>
+      <c r="A42" s="344"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4661,7 +4640,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="349"/>
+      <c r="A43" s="344"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4674,7 +4653,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="349"/>
+      <c r="A44" s="344"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4687,7 +4666,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="349"/>
+      <c r="A45" s="344"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4700,7 +4679,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="349"/>
+      <c r="A46" s="344"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4713,7 +4692,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="349"/>
+      <c r="A47" s="344"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4726,7 +4705,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="349"/>
+      <c r="A48" s="344"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4739,7 +4718,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="349"/>
+      <c r="A49" s="344"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4752,7 +4731,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="349"/>
+      <c r="A50" s="344"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4765,7 +4744,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="349"/>
+      <c r="A51" s="344"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4778,7 +4757,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="349"/>
+      <c r="A52" s="344"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4791,7 +4770,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="349"/>
+      <c r="A53" s="344"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4804,7 +4783,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="349"/>
+      <c r="A54" s="344"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4817,7 +4796,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="349"/>
+      <c r="A55" s="344"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4829,7 +4808,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="349"/>
+      <c r="A56" s="344"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4841,7 +4820,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="349"/>
+      <c r="A57" s="344"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4853,7 +4832,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="349"/>
+      <c r="A58" s="344"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4865,7 +4844,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="349"/>
+      <c r="A59" s="344"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4877,7 +4856,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="349"/>
+      <c r="A60" s="344"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4889,7 +4868,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="349"/>
+      <c r="A61" s="344"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4901,7 +4880,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="349"/>
+      <c r="A62" s="344"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4913,7 +4892,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="349"/>
+      <c r="A63" s="344"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4925,7 +4904,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="349"/>
+      <c r="A64" s="344"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4937,7 +4916,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="349"/>
+      <c r="A65" s="344"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4949,7 +4928,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="349"/>
+      <c r="A66" s="344"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4961,7 +4940,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="349"/>
+      <c r="A67" s="344"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4973,7 +4952,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="349"/>
+      <c r="A68" s="344"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4985,7 +4964,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="349"/>
+      <c r="A69" s="344"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4997,7 +4976,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="349"/>
+      <c r="A70" s="344"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5009,7 +4988,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="349"/>
+      <c r="A71" s="344"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5021,7 +5000,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="349"/>
+      <c r="A72" s="344"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5033,7 +5012,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="349"/>
+      <c r="A73" s="344"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5045,7 +5024,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="349"/>
+      <c r="A74" s="344"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5057,7 +5036,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="349"/>
+      <c r="A75" s="344"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5069,7 +5048,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="349"/>
+      <c r="A76" s="344"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5081,7 +5060,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="349"/>
+      <c r="A77" s="344"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5093,7 +5072,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="349"/>
+      <c r="A78" s="344"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5105,7 +5084,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="349"/>
+      <c r="A79" s="344"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5117,7 +5096,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="349"/>
+      <c r="A80" s="344"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5129,7 +5108,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="349"/>
+      <c r="A81" s="344"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5141,7 +5120,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="349"/>
+      <c r="A82" s="344"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5153,7 +5132,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="349"/>
+      <c r="A83" s="344"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5210,33 +5189,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="348"/>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
+      <c r="A1" s="343"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="346" t="s">
+      <c r="A2" s="344"/>
+      <c r="B2" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="349"/>
-      <c r="B3" s="347" t="s">
+      <c r="A3" s="344"/>
+      <c r="B3" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="349"/>
+      <c r="A4" s="344"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5254,7 +5233,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="349"/>
+      <c r="A5" s="344"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5272,7 +5251,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="349"/>
+      <c r="A6" s="344"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5284,7 +5263,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="349"/>
+      <c r="A7" s="344"/>
       <c r="B7" s="26" t="s">
         <v>190</v>
       </c>
@@ -5302,7 +5281,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="349"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="26" t="s">
         <v>193</v>
       </c>
@@ -5320,7 +5299,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="349"/>
+      <c r="A9" s="344"/>
       <c r="B9" s="26" t="s">
         <v>196</v>
       </c>
@@ -5338,7 +5317,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="349"/>
+      <c r="A10" s="344"/>
       <c r="B10" s="26" t="s">
         <v>200</v>
       </c>
@@ -5356,7 +5335,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="349"/>
+      <c r="A11" s="344"/>
       <c r="B11" s="26" t="s">
         <v>202</v>
       </c>
@@ -5374,7 +5353,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="349"/>
+      <c r="A12" s="344"/>
       <c r="B12" s="26" t="s">
         <v>205</v>
       </c>
@@ -5392,9 +5371,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="349"/>
+      <c r="A13" s="344"/>
       <c r="B13" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="247">
         <v>150000</v>
@@ -5410,9 +5389,9 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="349"/>
+      <c r="A14" s="344"/>
       <c r="B14" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="247">
         <v>0</v>
@@ -5427,9 +5406,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="349"/>
+      <c r="A15" s="344"/>
       <c r="B15" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="247">
         <v>600000</v>
@@ -5445,9 +5424,9 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="349"/>
+      <c r="A16" s="344"/>
       <c r="B16" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C16" s="247">
         <v>500000</v>
@@ -5463,9 +5442,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="349"/>
+      <c r="A17" s="344"/>
       <c r="B17" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C17" s="247">
         <v>500000</v>
@@ -5481,9 +5460,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="349"/>
+      <c r="A18" s="344"/>
       <c r="B18" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C18" s="247">
         <v>500000</v>
@@ -5499,9 +5478,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="349"/>
+      <c r="A19" s="344"/>
       <c r="B19" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C19" s="247">
         <v>500000</v>
@@ -5517,9 +5496,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="349"/>
+      <c r="A20" s="344"/>
       <c r="B20" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="247">
         <v>0</v>
@@ -5535,9 +5514,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="349"/>
+      <c r="A21" s="344"/>
       <c r="B21" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="247">
         <v>1000000</v>
@@ -5553,9 +5532,9 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="349"/>
+      <c r="A22" s="344"/>
       <c r="B22" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C22" s="247">
         <v>200000</v>
@@ -5571,9 +5550,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="349"/>
+      <c r="A23" s="344"/>
       <c r="B23" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C23" s="247">
         <v>500000</v>
@@ -5589,9 +5568,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="349"/>
+      <c r="A24" s="344"/>
       <c r="B24" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C24" s="247">
         <v>1000000</v>
@@ -5607,9 +5586,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="349"/>
+      <c r="A25" s="344"/>
       <c r="B25" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C25" s="247">
         <v>500000</v>
@@ -5625,9 +5604,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="349"/>
+      <c r="A26" s="344"/>
       <c r="B26" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="247">
         <v>0</v>
@@ -5643,9 +5622,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="349"/>
+      <c r="A27" s="344"/>
       <c r="B27" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C27" s="247">
         <v>1700000</v>
@@ -5661,7 +5640,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="349"/>
+      <c r="A28" s="344"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5673,7 +5652,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="349"/>
+      <c r="A29" s="344"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5685,7 +5664,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="349"/>
+      <c r="A30" s="344"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5697,7 +5676,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="349"/>
+      <c r="A31" s="344"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5709,7 +5688,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="349"/>
+      <c r="A32" s="344"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5721,7 +5700,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="349"/>
+      <c r="A33" s="344"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5733,7 +5712,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="349"/>
+      <c r="A34" s="344"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5745,7 +5724,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="349"/>
+      <c r="A35" s="344"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5757,7 +5736,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="349"/>
+      <c r="A36" s="344"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5769,7 +5748,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="349"/>
+      <c r="A37" s="344"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5781,7 +5760,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="349"/>
+      <c r="A38" s="344"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5793,7 +5772,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="349"/>
+      <c r="A39" s="344"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5805,7 +5784,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="349"/>
+      <c r="A40" s="344"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5817,7 +5796,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="349"/>
+      <c r="A41" s="344"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5829,7 +5808,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="349"/>
+      <c r="A42" s="344"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5841,7 +5820,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="349"/>
+      <c r="A43" s="344"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5853,7 +5832,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="349"/>
+      <c r="A44" s="344"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5865,7 +5844,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="349"/>
+      <c r="A45" s="344"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5877,7 +5856,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="349"/>
+      <c r="A46" s="344"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5889,7 +5868,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="349"/>
+      <c r="A47" s="344"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5901,7 +5880,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="349"/>
+      <c r="A48" s="344"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5913,7 +5892,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="349"/>
+      <c r="A49" s="344"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5925,7 +5904,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="349"/>
+      <c r="A50" s="344"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5937,7 +5916,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="349"/>
+      <c r="A51" s="344"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5949,7 +5928,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="349"/>
+      <c r="A52" s="344"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5961,7 +5940,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="349"/>
+      <c r="A53" s="344"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5973,7 +5952,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="349"/>
+      <c r="A54" s="344"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5985,7 +5964,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="349"/>
+      <c r="A55" s="344"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5997,7 +5976,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="349"/>
+      <c r="A56" s="344"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -6009,7 +5988,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="349"/>
+      <c r="A57" s="344"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -6021,7 +6000,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="349"/>
+      <c r="A58" s="344"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -6033,7 +6012,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="349"/>
+      <c r="A59" s="344"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -6044,7 +6023,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="349"/>
+      <c r="A60" s="344"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -6055,7 +6034,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="349"/>
+      <c r="A61" s="344"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -6066,7 +6045,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="349"/>
+      <c r="A62" s="344"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -6077,7 +6056,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="349"/>
+      <c r="A63" s="344"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6088,7 +6067,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="349"/>
+      <c r="A64" s="344"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6099,7 +6078,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="349"/>
+      <c r="A65" s="344"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6110,7 +6089,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="349"/>
+      <c r="A66" s="344"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6121,7 +6100,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="349"/>
+      <c r="A67" s="344"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6132,7 +6111,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="349"/>
+      <c r="A68" s="344"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6143,7 +6122,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="349"/>
+      <c r="A69" s="344"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6154,7 +6133,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="349"/>
+      <c r="A70" s="344"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6165,7 +6144,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="349"/>
+      <c r="A71" s="344"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6176,7 +6155,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="349"/>
+      <c r="A72" s="344"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6187,7 +6166,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="349"/>
+      <c r="A73" s="344"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6198,7 +6177,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="349"/>
+      <c r="A74" s="344"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6209,7 +6188,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="349"/>
+      <c r="A75" s="344"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6220,7 +6199,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="349"/>
+      <c r="A76" s="344"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6231,7 +6210,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="349"/>
+      <c r="A77" s="344"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6242,7 +6221,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="349"/>
+      <c r="A78" s="344"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6253,7 +6232,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="349"/>
+      <c r="A79" s="344"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6265,7 +6244,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="349"/>
+      <c r="A80" s="344"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6277,7 +6256,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="349"/>
+      <c r="A81" s="344"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6289,7 +6268,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="349"/>
+      <c r="A82" s="344"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6301,7 +6280,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="349"/>
+      <c r="A83" s="344"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6381,67 +6360,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="349" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
-      <c r="Q1" s="354"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="349"/>
+      <c r="P1" s="349"/>
+      <c r="Q1" s="349"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="350" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="355"/>
-      <c r="J2" s="355"/>
-      <c r="K2" s="355"/>
-      <c r="L2" s="355"/>
-      <c r="M2" s="355"/>
-      <c r="N2" s="355"/>
-      <c r="O2" s="355"/>
-      <c r="P2" s="355"/>
-      <c r="Q2" s="355"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="350"/>
+      <c r="L2" s="350"/>
+      <c r="M2" s="350"/>
+      <c r="N2" s="350"/>
+      <c r="O2" s="350"/>
+      <c r="P2" s="350"/>
+      <c r="Q2" s="350"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="351" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="357"/>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="358"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="353"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6450,52 +6429,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="361" t="s">
+      <c r="B4" s="356" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="345" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="350" t="s">
+      <c r="F4" s="345" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="350" t="s">
+      <c r="G4" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="350" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="350" t="s">
+      <c r="H4" s="345" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="345" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="350" t="s">
+      <c r="J4" s="345" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="350" t="s">
+      <c r="K4" s="345" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="350" t="s">
+      <c r="L4" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="350" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="350" t="s">
+      <c r="M4" s="345" t="s">
+        <v>223</v>
+      </c>
+      <c r="N4" s="345" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="352" t="s">
+      <c r="O4" s="347" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="363" t="s">
+      <c r="P4" s="358" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6508,22 +6487,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="360"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
-      <c r="G5" s="351"/>
-      <c r="H5" s="351"/>
-      <c r="I5" s="351"/>
-      <c r="J5" s="351"/>
-      <c r="K5" s="351"/>
-      <c r="L5" s="351"/>
-      <c r="M5" s="351"/>
-      <c r="N5" s="351"/>
-      <c r="O5" s="353"/>
-      <c r="P5" s="364"/>
+      <c r="A5" s="355"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="346"/>
+      <c r="G5" s="346"/>
+      <c r="H5" s="346"/>
+      <c r="I5" s="346"/>
+      <c r="J5" s="346"/>
+      <c r="K5" s="346"/>
+      <c r="L5" s="346"/>
+      <c r="M5" s="346"/>
+      <c r="N5" s="346"/>
+      <c r="O5" s="348"/>
+      <c r="P5" s="359"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -6778,7 +6757,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="82">
         <v>700</v>
@@ -6816,7 +6795,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="82">
         <v>1300</v>
@@ -6854,7 +6833,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="82">
         <v>700</v>
@@ -6894,7 +6873,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="74" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B15" s="82">
         <v>900</v>
@@ -6934,7 +6913,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B16" s="82">
         <v>500</v>
@@ -6974,7 +6953,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B17" s="82">
         <v>1400</v>
@@ -7014,7 +6993,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B18" s="82">
         <v>700</v>
@@ -7054,7 +7033,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="74" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B19" s="82">
         <v>200</v>
@@ -7094,7 +7073,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" s="82">
         <v>1300</v>
@@ -7140,7 +7119,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="82">
         <v>1400</v>
@@ -7178,7 +7157,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="75">
@@ -7214,7 +7193,7 @@
     </row>
     <row r="23" spans="1:23" s="90" customFormat="1">
       <c r="A23" s="74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B23" s="82">
         <v>400</v>
@@ -7248,7 +7227,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" s="82">
         <v>2100</v>
@@ -7285,7 +7264,7 @@
     </row>
     <row r="25" spans="1:23" s="90" customFormat="1">
       <c r="A25" s="74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B25" s="82">
         <v>600</v>
@@ -7321,7 +7300,7 @@
     </row>
     <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B26" s="82"/>
       <c r="C26" s="75"/>
@@ -9694,8 +9673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9722,14 +9701,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="365"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9823,14 +9802,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="371" t="s">
+      <c r="A2" s="366" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="373"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="368"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9924,14 +9903,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="374" t="s">
+      <c r="A3" s="369" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="376"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="371"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -10799,7 +10778,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="49">
         <v>1327860</v>
@@ -10909,7 +10888,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="181" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="49">
         <v>620480</v>
@@ -11019,7 +10998,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="181" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13" s="49">
         <v>593760</v>
@@ -11129,7 +11108,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="181" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="49">
         <v>530890</v>
@@ -11239,7 +11218,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="181" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B15" s="49">
         <v>424770</v>
@@ -11349,7 +11328,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" s="49">
         <v>483680</v>
@@ -11459,7 +11438,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="181" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17" s="49">
         <v>643700</v>
@@ -11569,7 +11548,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="181" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B18" s="49">
         <v>560960</v>
@@ -11679,7 +11658,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="181" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="49">
         <v>563490</v>
@@ -11789,7 +11768,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="181" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="49">
         <v>624900</v>
@@ -11899,7 +11878,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="181" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="49">
         <v>653680</v>
@@ -12009,7 +11988,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="181" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B22" s="49">
         <v>323250</v>
@@ -12119,7 +12098,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="181" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B23" s="49">
         <v>379120</v>
@@ -12229,7 +12208,7 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="181" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B24" s="49">
         <v>448670</v>
@@ -12339,7 +12318,7 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="181" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B25" s="49">
         <v>900070</v>
@@ -13378,12 +13357,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="367" t="s">
+      <c r="B35" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="367"/>
-      <c r="D35" s="367"/>
-      <c r="E35" s="367"/>
+      <c r="C35" s="362"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -13603,7 +13582,7 @@
         <v>3500</v>
       </c>
       <c r="E37" s="263" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F37" s="133"/>
       <c r="G37" s="138"/>
@@ -13710,7 +13689,7 @@
         <v>1000</v>
       </c>
       <c r="E38" s="176" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F38" s="131"/>
       <c r="G38" s="138"/>
@@ -13817,7 +13796,7 @@
         <v>3450</v>
       </c>
       <c r="E39" s="175" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="138"/>
@@ -13926,7 +13905,7 @@
         <v>12640</v>
       </c>
       <c r="E40" s="175" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F40" s="131"/>
       <c r="G40" s="144"/>
@@ -14035,7 +14014,7 @@
         <v>12960</v>
       </c>
       <c r="E41" s="175" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F41" s="136"/>
       <c r="G41" s="145"/>
@@ -14568,7 +14547,7 @@
         <v>435030</v>
       </c>
       <c r="E46" s="296" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F46" s="130"/>
       <c r="G46" s="137"/>
@@ -14690,7 +14669,7 @@
         <v>200000</v>
       </c>
       <c r="E47" s="300" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F47" s="131"/>
       <c r="G47" s="137"/>
@@ -14812,7 +14791,7 @@
         <v>528960</v>
       </c>
       <c r="E48" s="302" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F48" s="131"/>
       <c r="G48" s="137"/>
@@ -14934,7 +14913,7 @@
         <v>365910</v>
       </c>
       <c r="E49" s="300" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F49" s="131"/>
       <c r="G49" s="137"/>
@@ -15056,7 +15035,7 @@
         <v>90960</v>
       </c>
       <c r="E50" s="302" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F50" s="131"/>
       <c r="G50" s="137"/>
@@ -15176,7 +15155,7 @@
         <v>23000</v>
       </c>
       <c r="E51" s="304" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F51" s="131"/>
       <c r="G51" s="137"/>
@@ -15298,7 +15277,7 @@
         <v>65900</v>
       </c>
       <c r="E52" s="302" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F52" s="131"/>
       <c r="G52" s="137"/>
@@ -15418,7 +15397,7 @@
         <v>83830</v>
       </c>
       <c r="E53" s="300" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F53" s="131"/>
       <c r="G53" s="137"/>
@@ -15531,14 +15510,14 @@
         <v>86</v>
       </c>
       <c r="B54" s="297" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C54" s="298"/>
       <c r="D54" s="307">
         <v>173370</v>
       </c>
       <c r="E54" s="304" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F54" s="131"/>
       <c r="G54" s="137"/>
@@ -15648,17 +15627,17 @@
     </row>
     <row r="55" spans="1:97">
       <c r="A55" s="293" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B55" s="306" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" s="298"/>
       <c r="D55" s="307">
         <v>35660</v>
       </c>
       <c r="E55" s="302" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F55" s="131"/>
       <c r="G55" s="137" t="s">
@@ -16006,7 +15985,7 @@
         <v>141210</v>
       </c>
       <c r="E58" s="309" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F58" s="131"/>
       <c r="G58" s="137"/>
@@ -16126,7 +16105,7 @@
         <v>5370</v>
       </c>
       <c r="E59" s="309" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F59" s="131"/>
       <c r="G59" s="137"/>
@@ -17083,14 +17062,14 @@
         <v>78</v>
       </c>
       <c r="B67" s="288" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67" s="289"/>
       <c r="D67" s="290">
         <v>1080</v>
       </c>
       <c r="E67" s="291" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F67" s="131"/>
       <c r="G67" s="137"/>
@@ -17775,14 +17754,14 @@
         <v>81</v>
       </c>
       <c r="B73" s="312" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C73" s="319"/>
       <c r="D73" s="314">
         <v>22330</v>
       </c>
       <c r="E73" s="315" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F73" s="133"/>
       <c r="G73" s="137"/>
@@ -18022,7 +18001,7 @@
         <v>24160</v>
       </c>
       <c r="E75" s="318" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F75" s="131"/>
       <c r="G75" s="137"/>
@@ -18133,14 +18112,14 @@
         <v>106</v>
       </c>
       <c r="B76" s="312" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="313"/>
       <c r="D76" s="314">
         <v>10000</v>
       </c>
       <c r="E76" s="318" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F76" s="131"/>
       <c r="G76" s="137"/>
@@ -18260,7 +18239,7 @@
         <v>24000</v>
       </c>
       <c r="E77" s="316" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F77" s="137"/>
       <c r="G77" s="137"/>
@@ -18620,7 +18599,7 @@
         <v>270000</v>
       </c>
       <c r="E80" s="318" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F80" s="137"/>
       <c r="G80" s="137"/>
@@ -18738,7 +18717,7 @@
         <v>15530</v>
       </c>
       <c r="E81" s="318" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F81" s="131"/>
       <c r="G81" s="137"/>
@@ -19094,7 +19073,7 @@
         <v>7000</v>
       </c>
       <c r="E84" s="318" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F84" s="264"/>
       <c r="G84" s="137"/>
@@ -19214,7 +19193,7 @@
         <v>35000</v>
       </c>
       <c r="E85" s="318" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F85" s="131"/>
       <c r="G85" s="137"/>
@@ -19334,7 +19313,7 @@
         <v>30000</v>
       </c>
       <c r="E86" s="318" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F86" s="131"/>
       <c r="G86" s="137"/>
@@ -19452,7 +19431,7 @@
         <v>61660</v>
       </c>
       <c r="E87" s="318" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F87" s="131"/>
       <c r="G87" s="137"/>
@@ -19574,7 +19553,7 @@
         <v>59000</v>
       </c>
       <c r="E88" s="318" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F88" s="267"/>
       <c r="G88" s="137"/>
@@ -19687,14 +19666,14 @@
         <v>110</v>
       </c>
       <c r="B89" s="312" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C89" s="313"/>
       <c r="D89" s="314">
         <v>32000</v>
       </c>
       <c r="E89" s="316" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F89" s="131"/>
       <c r="G89" s="137"/>
@@ -22264,7 +22243,7 @@
         <v>330</v>
       </c>
       <c r="E114" s="178" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F114" s="137"/>
       <c r="G114" s="137"/>
@@ -22376,7 +22355,7 @@
         <v>62000</v>
       </c>
       <c r="E115" s="178" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" s="137"/>
       <c r="G115" s="137"/>
@@ -22479,7 +22458,7 @@
         <v>81</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C116" s="118">
         <v>1739992171</v>
@@ -22801,11 +22780,11 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="365" t="s">
+      <c r="A119" s="360" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="366"/>
-      <c r="C119" s="377"/>
+      <c r="B119" s="361"/>
+      <c r="C119" s="372"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3034990</v>
@@ -23008,11 +22987,11 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="365" t="s">
+      <c r="A121" s="360" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="366"/>
-      <c r="C121" s="366"/>
+      <c r="B121" s="361"/>
+      <c r="C121" s="361"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3034990</v>
@@ -34246,10 +34225,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y205"/>
+  <dimension ref="A1:Y204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34268,35 +34247,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="381" t="s">
+      <c r="A1" s="376" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="383"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="378"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="382" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="389"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="384"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="384" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="386"/>
+      <c r="A3" s="379" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="381"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34319,15 +34298,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="385" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="391"/>
+      <c r="B4" s="386"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="392" t="s">
+      <c r="D4" s="387" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="393"/>
+      <c r="E4" s="388"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34521,7 +34500,7 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E10" s="242">
         <v>7690</v>
@@ -34548,10 +34527,10 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="345">
+      <c r="B11" s="340">
         <f>B6-B9-B10</f>
         <v>251534.61460000009</v>
       </c>
@@ -34581,7 +34560,7 @@
     </row>
     <row r="12" spans="1:25" ht="21.75">
       <c r="A12" s="265" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="244">
         <v>90069</v>
@@ -34614,7 +34593,7 @@
     </row>
     <row r="13" spans="1:25" ht="21.75">
       <c r="A13" s="278" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="279">
         <f>B11+B12</f>
@@ -34676,8 +34655,8 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="21.75">
-      <c r="A15" s="343" t="s">
-        <v>250</v>
+      <c r="A15" s="338" t="s">
+        <v>247</v>
       </c>
       <c r="B15" s="260">
         <v>500000</v>
@@ -34803,13 +34782,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="378" t="s">
+      <c r="A19" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="379"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="380"/>
+      <c r="B19" s="374"/>
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="375"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34836,14 +34815,14 @@
         <v>140</v>
       </c>
       <c r="B20" s="327">
-        <v>185700</v>
+        <v>141210</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="329" t="s">
         <v>130</v>
       </c>
       <c r="E20" s="330">
-        <v>400000</v>
+        <v>435030</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
@@ -34876,7 +34855,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="262">
-        <v>465910</v>
+        <v>365910</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="16"/>
@@ -34908,7 +34887,7 @@
         <v>132</v>
       </c>
       <c r="E22" s="262">
-        <v>282330</v>
+        <v>528960</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
@@ -34939,7 +34918,7 @@
         <v>131</v>
       </c>
       <c r="E23" s="262">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -34957,17 +34936,17 @@
     </row>
     <row r="24" spans="1:25" ht="21.75">
       <c r="A24" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B24" s="45">
         <v>22540</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="261" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="262">
-        <v>160940</v>
+        <v>173370</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -34985,7 +34964,7 @@
     </row>
     <row r="25" spans="1:25" ht="21.75">
       <c r="A25" s="246" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25" s="120">
         <v>60580</v>
@@ -35018,7 +34997,7 @@
     </row>
     <row r="26" spans="1:25" ht="21.75">
       <c r="A26" s="246" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26" s="120">
         <v>39000</v>
@@ -35062,7 +35041,7 @@
         <v>137</v>
       </c>
       <c r="E27" s="262">
-        <v>105820</v>
+        <v>83830</v>
       </c>
       <c r="G27" s="33"/>
       <c r="K27" s="1" t="s">
@@ -35116,14 +35095,14 @@
     </row>
     <row r="29" spans="1:25" ht="21.75">
       <c r="A29" s="246" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" s="120">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="261" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E29" s="262">
         <v>35660</v>
@@ -35152,10 +35131,10 @@
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="261" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="E30" s="262">
-        <v>37510</v>
+        <v>30000</v>
       </c>
       <c r="G30" s="33"/>
       <c r="M30" s="7"/>
@@ -35181,10 +35160,10 @@
       </c>
       <c r="C31" s="121"/>
       <c r="D31" s="261" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="E31" s="262">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="G31" s="33"/>
       <c r="M31" s="7"/>
@@ -35210,10 +35189,10 @@
       </c>
       <c r="C32" s="121"/>
       <c r="D32" s="261" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E32" s="262">
-        <v>17900</v>
+        <v>16000</v>
       </c>
       <c r="G32" s="33"/>
       <c r="M32" s="7"/>
@@ -35239,10 +35218,10 @@
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="261" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E33" s="262">
-        <v>35000</v>
+        <v>61660</v>
       </c>
       <c r="G33" s="16"/>
       <c r="K33" s="1" t="s">
@@ -35269,14 +35248,14 @@
         <v>195</v>
       </c>
       <c r="B34" s="120">
-        <v>20530</v>
+        <v>15530</v>
       </c>
       <c r="C34" s="121"/>
       <c r="D34" s="261" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E34" s="262">
-        <v>45000</v>
+        <v>59000</v>
       </c>
       <c r="G34" s="16"/>
       <c r="K34" s="1" t="s">
@@ -35298,19 +35277,19 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" ht="21.75">
+    <row r="35" spans="1:25" ht="22.5" thickBot="1">
       <c r="A35" s="336" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B35" s="337">
+        <v>25000</v>
+      </c>
+      <c r="C35" s="325"/>
+      <c r="D35" s="272" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="273">
         <v>32000</v>
-      </c>
-      <c r="C35" s="338"/>
-      <c r="D35" s="339" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="340">
-        <v>20000</v>
       </c>
       <c r="G35" s="16"/>
       <c r="N35" s="7"/>
@@ -35326,21 +35305,13 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A36" s="341" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="342">
-        <v>59000</v>
-      </c>
-      <c r="C36" s="325"/>
-      <c r="D36" s="272" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="273">
-        <v>61660</v>
-      </c>
-      <c r="G36" s="16"/>
+    <row r="36" spans="1:25">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -35595,6 +35566,9 @@
       <c r="Y48" s="7"/>
     </row>
     <row r="49" spans="2:25">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -39179,32 +39153,9 @@
       <c r="X204" s="7"/>
       <c r="Y204" s="7"/>
     </row>
-    <row r="205" spans="2:25">
-      <c r="B205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="H205" s="7"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
-      <c r="K205" s="7"/>
-      <c r="L205" s="7"/>
-      <c r="M205" s="7"/>
-      <c r="N205" s="7"/>
-      <c r="O205" s="7"/>
-      <c r="P205" s="7"/>
-      <c r="Q205" s="7"/>
-      <c r="R205" s="7"/>
-      <c r="S205" s="7"/>
-      <c r="T205" s="7"/>
-      <c r="U205" s="7"/>
-      <c r="V205" s="7"/>
-      <c r="W205" s="7"/>
-      <c r="X205" s="7"/>
-      <c r="Y205" s="7"/>
-    </row>
   </sheetData>
-  <sortState ref="A21:B37">
-    <sortCondition ref="A20"/>
+  <sortState ref="D30:E36">
+    <sortCondition ref="D30"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A19:E19"/>
